--- a/static/delgrade.xlsx
+++ b/static/delgrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Score_management_system\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5051A62-4BE0-48F0-80A3-AF18E45ACC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1AB84C-2078-4378-92E6-D69AD2DD7A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1354" yWindow="1517" windowWidth="13192" windowHeight="11777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>记录者用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +83,22 @@
   </si>
   <si>
     <t>请填写扣分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//上传时请删除空行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-23 12:23:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时务必把这列改成文本形式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,19 +166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -194,22 +193,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,153 +488,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.640625" defaultRowHeight="30.55" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.78515625" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="30.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
